--- a/rtiduino-1.3.xlsx
+++ b/rtiduino-1.3.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="rtiduino_BOM" localSheetId="0">Sheet1!$A$3:$L$43</definedName>
+    <definedName name="rtiduino_BOM" localSheetId="0">Sheet1!$A$3:$L$59</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="274">
   <si>
     <t>Qty</t>
   </si>
@@ -745,6 +745,132 @@
   </si>
   <si>
     <t>FT232RL-TUBE</t>
+  </si>
+  <si>
+    <t>Ribbon Cable (screen/switches)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3365-16 </t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>RibbonCable</t>
+  </si>
+  <si>
+    <t>16-core</t>
+  </si>
+  <si>
+    <t>IDC Connector</t>
+  </si>
+  <si>
+    <t>2x08</t>
+  </si>
+  <si>
+    <t>Ribbon Cable to Board</t>
+  </si>
+  <si>
+    <t>90635-1161</t>
+  </si>
+  <si>
+    <t>Misc Bits</t>
+  </si>
+  <si>
+    <t>Female D-Sub</t>
+  </si>
+  <si>
+    <t>Male D-Sub</t>
+  </si>
+  <si>
+    <t>D-Sub Shells</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>18535CD</t>
+  </si>
+  <si>
+    <t>Pushbutton Switch, Standard, 18000 Series, 6.5 mm, SPDT, On-(On), Plunger</t>
+  </si>
+  <si>
+    <t>SPDT</t>
+  </si>
+  <si>
+    <t>LCD-09395</t>
+  </si>
+  <si>
+    <t>LCD1</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>MK00650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474-LCD-09395 </t>
+  </si>
+  <si>
+    <t>CN11131</t>
+  </si>
+  <si>
+    <t>5502-15PA-01-F1</t>
+  </si>
+  <si>
+    <t>MHDM-15-K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5502-15SA-01-F1 </t>
+  </si>
+  <si>
+    <t>CN21810</t>
+  </si>
+  <si>
+    <t>D Sub Jack Screw</t>
+  </si>
+  <si>
+    <t>SPC15082.</t>
+  </si>
+  <si>
+    <t>Black switch cap</t>
+  </si>
+  <si>
+    <t>Red switch cap</t>
+  </si>
+  <si>
+    <t>Green switch cap</t>
+  </si>
+  <si>
+    <t>U482</t>
+  </si>
+  <si>
+    <t>U486</t>
+  </si>
+  <si>
+    <t>U483</t>
+  </si>
+  <si>
+    <t>Switch Cap, 18000 Series Snap Action Momentary Pushbutton Switches, Green</t>
+  </si>
+  <si>
+    <t>Switch Cap, 13000 Series Snap Action Momentary Pushbutton Switches, Red</t>
+  </si>
+  <si>
+    <t>Switch Cap, Snap Action Momentary Pushbutton Switches, Black</t>
+  </si>
+  <si>
+    <t>Current Stock</t>
+  </si>
+  <si>
+    <t>MCRM2055L</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Plastic Enclosure, Desktop Case, Instrument, ABS, 70.75 mm, 140 mm, 190 mm, IP43</t>
   </si>
 </sst>
 </file>
@@ -754,7 +880,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1277,7 +1403,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1312,9 +1437,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1360,17 +1488,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1388,146 +1506,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1910,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,48 +1902,51 @@
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="32" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="18"/>
-    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="11"/>
-    <col min="20" max="20" width="18.5703125" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="25"/>
+    <col min="16" max="16" width="9.140625" style="24"/>
+    <col min="17" max="17" width="9.140625" style="17"/>
+    <col min="18" max="18" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="19">
         <v>2</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="33"/>
-      <c r="P1" s="18"/>
-      <c r="R1" s="11"/>
-      <c r="Y1" s="25"/>
-    </row>
-    <row r="2" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="33"/>
-      <c r="P2" s="18"/>
-      <c r="R2" s="11"/>
-      <c r="Y2" s="25"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="32"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="17"/>
+      <c r="S1" s="11"/>
+      <c r="Z1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="32"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="17"/>
+      <c r="S2" s="11"/>
+      <c r="Z2" s="24"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1989,13 +1970,13 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>208</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>209</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -2010,30 +1991,33 @@
       <c r="O3" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>212</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>184</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>196</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2046,23 +2030,23 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>1656423</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>0.154</v>
       </c>
       <c r="J4" t="s">
         <v>207</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <v>0.23799999999999999</v>
       </c>
       <c r="L4">
-        <f>A4*$C$1</f>
+        <f t="shared" ref="L4:L24" si="0">A4*$C$1</f>
         <v>2</v>
       </c>
       <c r="M4">
@@ -2075,30 +2059,35 @@
       <c r="O4">
         <v>10</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="17">
         <v>10</v>
       </c>
-      <c r="Q4" t="str">
-        <f>CONCATENATE($G4,"|",$P4)</f>
+      <c r="R4" t="str">
+        <f>CONCATENATE($G4,"|",$Q4)</f>
         <v>SKHHAKA010|10</v>
       </c>
-      <c r="R4" s="11">
+      <c r="S4" s="11">
+        <f>I4</f>
         <v>0.154</v>
       </c>
-      <c r="S4" s="7">
-        <f>R4*P4</f>
+      <c r="T4" s="7">
+        <f>S4*Q4</f>
         <v>1.54</v>
       </c>
-      <c r="T4" t="str">
-        <f>CONCATENATE($H4,",",$P4)</f>
+      <c r="U4" s="24" t="str">
+        <f>IF($Q4&gt;0,CONCATENATE($H4,",",$Q4),"")</f>
         <v>1656423,10</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X4" s="24" t="str">
+        <f>IF($Q4&gt;0,CONCATENATE($H4,",",$Q4),"")</f>
+        <v>1656423,10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2111,27 +2100,27 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>3418327</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <v>0.50900000000000001</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="32">
         <v>0.48</v>
       </c>
-      <c r="L5" s="20">
-        <f>A5*$C$1</f>
+      <c r="L5" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M5" s="20">
-        <f t="shared" ref="M5:M27" si="0">ROUNDUP(L5*1.1, 0)</f>
+      <c r="M5" s="19">
+        <f t="shared" ref="M5:M27" si="1">ROUNDUP(L5*1.1, 0)</f>
         <v>3</v>
       </c>
       <c r="N5">
@@ -2140,30 +2129,31 @@
       <c r="O5">
         <v>10</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="17">
         <v>10</v>
       </c>
-      <c r="Q5" s="25" t="str">
-        <f>CONCATENATE($G5,"|",$P5)</f>
+      <c r="R5" s="24" t="str">
+        <f>CONCATENATE($G5,"|",$Q5)</f>
         <v>826629-6|10</v>
       </c>
-      <c r="R5" s="11">
+      <c r="S5" s="11">
+        <f>I5</f>
         <v>0.50900000000000001</v>
       </c>
-      <c r="S5" s="7">
-        <f t="shared" ref="S5:S27" si="1">R5*P5</f>
+      <c r="T5" s="7">
+        <f t="shared" ref="T5:T27" si="2">S5*Q5</f>
         <v>5.09</v>
       </c>
-      <c r="T5" s="25" t="str">
-        <f>CONCATENATE($H5,",",$P5)</f>
+      <c r="U5" s="24" t="str">
+        <f>IF($Q5&gt;0,CONCATENATE($H5,",",$Q5),"")</f>
         <v>3418327,10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2176,21 +2166,21 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>1248161</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="27">
         <v>0.49</v>
       </c>
-      <c r="L6" s="20">
-        <f>A6*$C$1</f>
+      <c r="L6" s="19">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M6" s="20">
-        <f t="shared" si="0"/>
+      <c r="M6" s="19">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N6">
@@ -2199,30 +2189,34 @@
       <c r="O6">
         <v>10</v>
       </c>
-      <c r="P6" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="25" t="str">
-        <f>CONCATENATE($G6,"|",$P6)</f>
-        <v>826942-5|10</v>
-      </c>
-      <c r="R6" s="11">
+      <c r="P6" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="24" t="str">
+        <f>CONCATENATE($G6,"|",$Q6)</f>
+        <v>826942-5|0</v>
+      </c>
+      <c r="S6" s="11">
+        <f>I6</f>
         <v>0.49</v>
       </c>
-      <c r="S6" s="7">
-        <f t="shared" si="1"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="T6" s="25" t="str">
-        <f>CONCATENATE($H6,",",$P6)</f>
-        <v>1248161,10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="24" t="str">
+        <f t="shared" ref="U6:U29" si="3">IF($Q6&gt;0,CONCATENATE($H6,",",$Q6),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2235,21 +2229,21 @@
       <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>3417803</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <v>1.88</v>
       </c>
-      <c r="L7" s="20">
-        <f>A7*$C$1</f>
+      <c r="L7" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M7" s="20">
-        <f t="shared" si="0"/>
+      <c r="M7" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N7">
@@ -2258,30 +2252,34 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="25" t="str">
-        <f>CONCATENATE($G7,"|",$P7)</f>
-        <v>825440-8|3</v>
-      </c>
-      <c r="R7" s="11">
+      <c r="P7" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="24" t="str">
+        <f>CONCATENATE($G7,"|",$Q7)</f>
+        <v>825440-8|0</v>
+      </c>
+      <c r="S7" s="11">
+        <f>I7</f>
         <v>1.88</v>
       </c>
-      <c r="S7" s="7">
-        <f t="shared" si="1"/>
-        <v>5.64</v>
-      </c>
-      <c r="T7" s="25" t="str">
-        <f>CONCATENATE($H7,",",$P7)</f>
-        <v>3417803,3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21"/>
+      <c r="T7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20"/>
       <c r="C8" s="1" t="s">
         <v>188</v>
       </c>
@@ -2294,56 +2292,60 @@
       <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>3418285</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>0.27800000000000002</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="20">
-        <f>A8*$C$1</f>
+      <c r="J8" s="24"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M8" s="20">
-        <f t="shared" ref="M8" si="2">ROUNDUP(L8*1.1, 0)</f>
+      <c r="M8" s="19">
+        <f t="shared" ref="M8" si="4">ROUNDUP(L8*1.1, 0)</f>
         <v>3</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>10</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>10</v>
       </c>
-      <c r="P8" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="25" t="str">
-        <f>CONCATENATE($G8,"|",$P8)</f>
-        <v>826629-2|10</v>
-      </c>
-      <c r="R8" s="11">
+      <c r="P8" s="24">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="24" t="str">
+        <f>CONCATENATE($G8,"|",$Q8)</f>
+        <v>826629-2|0</v>
+      </c>
+      <c r="S8" s="11">
+        <f>I8</f>
         <v>0.27800000000000002</v>
       </c>
-      <c r="S8" s="7">
-        <f t="shared" ref="S8" si="3">R8*P8</f>
-        <v>2.7800000000000002</v>
-      </c>
-      <c r="T8" s="25" t="str">
-        <f>CONCATENATE($H8,",",$P8)</f>
-        <v>3418285,10</v>
-      </c>
-      <c r="Y8" s="25"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T8" s="7">
+        <f t="shared" ref="T8" si="5">S8*Q8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z8" s="24"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2356,22 +2358,21 @@
       <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>1753809</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>1.24</v>
       </c>
-      <c r="L9" s="20">
-        <f>A9*$C$1</f>
+      <c r="L9" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M9" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="M9" s="19">
+        <v>1</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2379,26 +2380,27 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="25" t="str">
-        <f>CONCATENATE($G9,"|",$P9)</f>
-        <v>USBR-B-S-S-O-TH|3</v>
-      </c>
-      <c r="R9" s="11">
+      <c r="Q9" s="17">
+        <v>2</v>
+      </c>
+      <c r="R9" s="24" t="str">
+        <f>CONCATENATE($G9,"|",$Q9)</f>
+        <v>USBR-B-S-S-O-TH|2</v>
+      </c>
+      <c r="S9" s="11">
+        <f>I9</f>
         <v>1.24</v>
       </c>
-      <c r="S9" s="7">
-        <f t="shared" si="1"/>
-        <v>3.7199999999999998</v>
-      </c>
-      <c r="T9" s="25" t="str">
-        <f>CONCATENATE($H9,",",$P9)</f>
-        <v>1753809,3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T9" s="7">
+        <f t="shared" si="2"/>
+        <v>2.48</v>
+      </c>
+      <c r="U9" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>1753809,2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -2411,27 +2413,27 @@
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>194</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>1740681</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <v>0.13900000000000001</v>
       </c>
-      <c r="L10" s="20">
-        <f>A10*$C$1</f>
+      <c r="L10" s="19">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="M10" s="20">
-        <f t="shared" si="0"/>
+      <c r="M10" s="19">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="N10">
@@ -2440,26 +2442,27 @@
       <c r="O10">
         <v>10</v>
       </c>
-      <c r="P10" s="18">
+      <c r="Q10" s="17">
         <v>50</v>
       </c>
-      <c r="Q10" s="25" t="str">
-        <f>CONCATENATE($G10,"|",$P10)</f>
+      <c r="R10" s="24" t="str">
+        <f>CONCATENATE($G10,"|",$Q10)</f>
         <v>08051C104KAT2A|50</v>
       </c>
-      <c r="R10" s="11">
+      <c r="S10" s="11">
+        <f>I10</f>
         <v>0.13900000000000001</v>
       </c>
-      <c r="S10" s="7">
-        <f t="shared" si="1"/>
+      <c r="T10" s="7">
+        <f t="shared" si="2"/>
         <v>6.9500000000000011</v>
       </c>
-      <c r="T10" s="25" t="str">
-        <f>CONCATENATE($H10,",",$P10)</f>
+      <c r="U10" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>1740681,50</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2478,21 +2481,21 @@
       <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>8812667</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>0.79600000000000004</v>
       </c>
-      <c r="L11" s="20">
-        <f>A11*$C$1</f>
+      <c r="L11" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M11" s="20">
-        <f t="shared" si="0"/>
+      <c r="M11" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N11">
@@ -2501,26 +2504,27 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="18">
+      <c r="Q11" s="17">
         <v>3</v>
       </c>
-      <c r="Q11" s="25" t="str">
-        <f>CONCATENATE($G11,"|",$P11)</f>
+      <c r="R11" s="24" t="str">
+        <f>CONCATENATE($G11,"|",$Q11)</f>
         <v>UPM1J101MPD|3</v>
       </c>
-      <c r="R11" s="11">
+      <c r="S11" s="11">
+        <f>I11</f>
         <v>0.79600000000000004</v>
       </c>
-      <c r="S11" s="7">
-        <f t="shared" si="1"/>
+      <c r="T11" s="7">
+        <f t="shared" si="2"/>
         <v>2.3879999999999999</v>
       </c>
-      <c r="T11" s="25" t="str">
-        <f>CONCATENATE($H11,",",$P11)</f>
+      <c r="U11" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>8812667,3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2539,278 +2543,291 @@
       <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>2078962</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="L12" s="20">
-        <f>A12*$C$1</f>
+      <c r="L12" s="19">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12" s="24">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>0</v>
+      </c>
+      <c r="R12" s="24" t="str">
+        <f>CONCATENATE($G12,"|",$Q12)</f>
+        <v>ASC0805-10KFT5|0</v>
+      </c>
+      <c r="S12" s="11">
+        <f>I12</f>
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="12">
+        <v>9696008</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0.309</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>2</v>
+      </c>
+      <c r="R13" s="24" t="str">
+        <f>CONCATENATE($G13,"|",$Q13)</f>
+        <v>EEE-FK1J100P|2</v>
+      </c>
+      <c r="S13" s="11">
+        <f>I13</f>
+        <v>0.309</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="U13" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>9696008,2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="12">
+        <v>8812675</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>3</v>
+      </c>
+      <c r="R14" s="24" t="str">
+        <f>CONCATENATE($G14,"|",$Q14)</f>
+        <v>UPM1J121MPD|3</v>
+      </c>
+      <c r="S14" s="11">
+        <f>I14</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="T14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.44699999999999995</v>
+      </c>
+      <c r="U14" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>8812675,3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="12">
+        <v>9509925</v>
+      </c>
+      <c r="I15" s="27">
+        <v>1.78</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>2</v>
+      </c>
+      <c r="R15" s="24" t="str">
+        <f>CONCATENATE($G15,"|",$Q15)</f>
+        <v>X16M000000L259|2</v>
+      </c>
+      <c r="S15" s="11">
+        <f>I15</f>
+        <v>1.78</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.56</v>
+      </c>
+      <c r="U15" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>9509925,2</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="Z15" s="27"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1469847</v>
+      </c>
+      <c r="I16" s="27">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="32">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L16" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12" s="18">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="25" t="str">
-        <f>CONCATENATE($G12,"|",$P12)</f>
-        <v>ASC0805-10KFT5|20</v>
-      </c>
-      <c r="R12" s="11">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="S12" s="7">
+      <c r="M16" s="19">
         <f t="shared" si="1"/>
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="T12" s="25" t="str">
-        <f>CONCATENATE($H12,",",$P12)</f>
-        <v>2078962,20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="13">
-        <v>9696008</v>
-      </c>
-      <c r="I13" s="28">
-        <v>0.309</v>
-      </c>
-      <c r="L13" s="20">
-        <f>A13*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="25" t="str">
-        <f>CONCATENATE($G13,"|",$P13)</f>
-        <v>EEE-FK1J100P|3</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0.309</v>
-      </c>
-      <c r="S13" s="7">
-        <f t="shared" si="1"/>
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="T13" s="25" t="str">
-        <f>CONCATENATE($H13,",",$P13)</f>
-        <v>9696008,3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="13">
-        <v>8812675</v>
-      </c>
-      <c r="I14" s="28">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="L14" s="20">
-        <f>A14*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="25" t="str">
-        <f>CONCATENATE($G14,"|",$P14)</f>
-        <v>UPM1J121MPD|3</v>
-      </c>
-      <c r="R14" s="11">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="S14" s="7">
-        <f t="shared" si="1"/>
-        <v>0.44699999999999995</v>
-      </c>
-      <c r="T14" s="25" t="str">
-        <f>CONCATENATE($H14,",",$P14)</f>
-        <v>8812675,3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="13">
-        <v>9509925</v>
-      </c>
-      <c r="I15" s="28">
-        <v>1.78</v>
-      </c>
-      <c r="L15" s="20">
-        <f>A15*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M15" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="25" t="str">
-        <f>CONCATENATE($G15,"|",$P15)</f>
-        <v>X16M000000L259|3</v>
-      </c>
-      <c r="R15" s="11">
-        <v>1.78</v>
-      </c>
-      <c r="S15" s="7">
-        <f t="shared" si="1"/>
-        <v>5.34</v>
-      </c>
-      <c r="T15" s="25" t="str">
-        <f>CONCATENATE($H15,",",$P15)</f>
-        <v>9509925,3</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="X15" s="28">
-        <v>0.71</v>
-      </c>
-      <c r="Y15" s="28"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="13">
-        <v>1469847</v>
-      </c>
-      <c r="I16" s="28">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K16" s="33">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L16" s="20">
-        <f>A16*$C$1</f>
-        <v>18</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N16">
@@ -2819,26 +2836,30 @@
       <c r="O16">
         <v>10</v>
       </c>
-      <c r="P16" s="18">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="25" t="str">
-        <f>CONCATENATE($G16,"|",$P16)</f>
-        <v>CRCW08051K00FKEA|20</v>
-      </c>
-      <c r="R16" s="11">
+      <c r="P16" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>0</v>
+      </c>
+      <c r="R16" s="24" t="str">
+        <f>CONCATENATE($G16,"|",$Q16)</f>
+        <v>CRCW08051K00FKEA|0</v>
+      </c>
+      <c r="S16" s="11">
+        <f>I16</f>
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="S16" s="7">
-        <f t="shared" si="1"/>
-        <v>1.31</v>
-      </c>
-      <c r="T16" s="25" t="str">
-        <f>CONCATENATE($H16,",",$P16)</f>
-        <v>1469847,20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2857,21 +2878,21 @@
       <c r="F17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>1267387</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <v>4.43</v>
       </c>
-      <c r="L17" s="20">
-        <f>A17*$C$1</f>
+      <c r="L17" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M17" s="20">
-        <f t="shared" si="0"/>
+      <c r="M17" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N17">
@@ -2880,29 +2901,33 @@
       <c r="O17">
         <v>5</v>
       </c>
-      <c r="P17" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="25" t="str">
-        <f>CONCATENATE($G17,"|",$P17)</f>
-        <v>MJ-2348BO|1</v>
-      </c>
-      <c r="R17" s="11">
+      <c r="P17" s="24">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24" t="str">
+        <f>CONCATENATE($G17,"|",$Q17)</f>
+        <v>MJ-2348BO|0</v>
+      </c>
+      <c r="S17" s="11">
+        <f>I17</f>
         <v>4.43</v>
       </c>
-      <c r="S17" s="7">
-        <f t="shared" si="1"/>
-        <v>4.43</v>
-      </c>
-      <c r="T17" s="25" t="str">
-        <f>CONCATENATE($H17,",",$P17)</f>
-        <v>1267387,1</v>
-      </c>
-      <c r="U17" s="25" t="s">
+      <c r="T17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V17" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2921,21 +2946,21 @@
       <c r="F18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>1217016</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>2.0099999999999998</v>
       </c>
-      <c r="L18" s="20">
-        <f>A18*$C$1</f>
+      <c r="L18" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M18" s="20">
-        <f t="shared" si="0"/>
+      <c r="M18" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N18">
@@ -2944,26 +2969,27 @@
       <c r="O18">
         <v>1</v>
       </c>
-      <c r="P18" s="18">
+      <c r="Q18" s="17">
         <v>3</v>
       </c>
-      <c r="Q18" s="25" t="str">
-        <f>CONCATENATE($G18,"|",$P18)</f>
+      <c r="R18" s="24" t="str">
+        <f>CONCATENATE($G18,"|",$Q18)</f>
         <v>KLBR 4|3</v>
       </c>
-      <c r="R18" s="11">
+      <c r="S18" s="11">
+        <f>I18</f>
         <v>2.0099999999999998</v>
       </c>
-      <c r="S18" s="7">
-        <f t="shared" si="1"/>
+      <c r="T18" s="7">
+        <f t="shared" si="2"/>
         <v>6.0299999999999994</v>
       </c>
-      <c r="T18" s="25" t="str">
-        <f>CONCATENATE($H18,",",$P18)</f>
+      <c r="U18" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>1217016,3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2982,27 +3008,27 @@
       <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>1657937</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>0.376</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <v>0.38800000000000001</v>
       </c>
-      <c r="L19" s="20">
-        <f>A19*$C$1</f>
+      <c r="L19" s="19">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M19" s="20">
-        <f t="shared" si="0"/>
+      <c r="M19" s="19">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N19">
@@ -3011,26 +3037,27 @@
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" s="18">
+      <c r="Q19" s="17">
         <v>5</v>
       </c>
-      <c r="Q19" s="25" t="str">
-        <f>CONCATENATE($G19,"|",$P19)</f>
+      <c r="R19" s="24" t="str">
+        <f>CONCATENATE($G19,"|",$Q19)</f>
         <v>0805YC475KAT2A|5</v>
       </c>
-      <c r="R19" s="11">
+      <c r="S19" s="11">
+        <f>I19</f>
         <v>0.376</v>
       </c>
-      <c r="S19" s="7">
-        <f t="shared" si="1"/>
+      <c r="T19" s="7">
+        <f t="shared" si="2"/>
         <v>1.88</v>
       </c>
-      <c r="T19" s="25" t="str">
-        <f>CONCATENATE($H19,",",$P19)</f>
+      <c r="U19" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>1657937,5</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3049,21 +3076,21 @@
       <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>2694141</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <v>1.44E-2</v>
       </c>
-      <c r="L20" s="20">
-        <f>A20*$C$1</f>
+      <c r="L20" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M20" s="20">
-        <f t="shared" si="0"/>
+      <c r="M20" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N20">
@@ -3072,26 +3099,27 @@
       <c r="O20">
         <v>10</v>
       </c>
-      <c r="P20" s="18">
+      <c r="Q20" s="17">
         <v>10</v>
       </c>
-      <c r="Q20" s="25" t="str">
-        <f>CONCATENATE($G20,"|",$P20)</f>
+      <c r="R20" s="24" t="str">
+        <f>CONCATENATE($G20,"|",$Q20)</f>
         <v>MCWF08P4701FTL|10</v>
       </c>
-      <c r="R20" s="11">
+      <c r="S20" s="11">
+        <f>I20</f>
         <v>1.44E-2</v>
       </c>
-      <c r="S20" s="7">
-        <f t="shared" si="1"/>
+      <c r="T20" s="7">
+        <f t="shared" si="2"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="T20" s="25" t="str">
-        <f>CONCATENATE($H20,",",$P20)</f>
+      <c r="U20" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>2694141,10</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3113,24 +3141,24 @@
       <c r="G21" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>1596990</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <v>0.27400000000000002</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <v>0.28799999999999998</v>
       </c>
-      <c r="L21" s="20">
-        <f>A21*$C$1</f>
+      <c r="L21" s="19">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M21" s="20">
-        <f t="shared" si="0"/>
+      <c r="M21" s="19">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N21">
@@ -3139,26 +3167,30 @@
       <c r="O21">
         <v>10</v>
       </c>
-      <c r="P21" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="25" t="str">
-        <f>CONCATENATE($G21,"|",$P21)</f>
-        <v>1206L025YR|10</v>
-      </c>
-      <c r="R21" s="11">
+      <c r="P21" s="24">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>0</v>
+      </c>
+      <c r="R21" s="24" t="str">
+        <f>CONCATENATE($G21,"|",$Q21)</f>
+        <v>1206L025YR|0</v>
+      </c>
+      <c r="S21" s="11">
+        <f>I21</f>
         <v>0.27400000000000002</v>
       </c>
-      <c r="S21" s="7">
-        <f t="shared" si="1"/>
-        <v>2.74</v>
-      </c>
-      <c r="T21" s="25" t="str">
-        <f>CONCATENATE($H21,",",$P21)</f>
-        <v>1596990,10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>28</v>
       </c>
@@ -3171,27 +3203,27 @@
       <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>191</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>1576455</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="27">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="L22" s="20">
-        <f>A22*$C$1</f>
+      <c r="L22" s="19">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="M22" s="20">
-        <f t="shared" si="0"/>
+      <c r="M22" s="19">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="N22">
@@ -3200,26 +3232,27 @@
       <c r="O22">
         <v>10</v>
       </c>
-      <c r="P22" s="18">
+      <c r="Q22" s="17">
         <v>70</v>
       </c>
-      <c r="Q22" s="25" t="str">
-        <f>CONCATENATE($G22,"|",$P22)</f>
+      <c r="R22" s="24" t="str">
+        <f>CONCATENATE($G22,"|",$Q22)</f>
         <v>MCHP05W4F5600T5E|70</v>
       </c>
-      <c r="R22" s="11">
+      <c r="S22" s="11">
+        <f>I22</f>
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="S22" s="7">
-        <f t="shared" si="1"/>
+      <c r="T22" s="7">
+        <f t="shared" si="2"/>
         <v>2.9470000000000001</v>
       </c>
-      <c r="T22" s="25" t="str">
-        <f>CONCATENATE($H22,",",$P22)</f>
+      <c r="U22" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>1576455,70</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3238,21 +3271,21 @@
       <c r="F23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>2675346</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="L23" s="20">
-        <f>A23*$C$1</f>
+      <c r="L23" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M23" s="20">
-        <f t="shared" si="0"/>
+      <c r="M23" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N23">
@@ -3261,26 +3294,30 @@
       <c r="O23">
         <v>5</v>
       </c>
-      <c r="P23" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="25" t="str">
-        <f>CONCATENATE($G23,"|",$P23)</f>
-        <v>BAT54C+|5</v>
-      </c>
-      <c r="R23" s="11">
+      <c r="P23" s="24">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="24" t="str">
+        <f>CONCATENATE($G23,"|",$Q23)</f>
+        <v>BAT54C+|0</v>
+      </c>
+      <c r="S23" s="11">
+        <f>I23</f>
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="S23" s="7">
-        <f t="shared" si="1"/>
-        <v>0.41149999999999998</v>
-      </c>
-      <c r="T23" s="25" t="str">
-        <f>CONCATENATE($H23,",",$P23)</f>
-        <v>2675346,5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3299,21 +3336,21 @@
       <c r="F24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>3498419</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="27">
         <v>0.54</v>
       </c>
-      <c r="L24" s="20">
-        <f>A24*$C$1</f>
+      <c r="L24" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M24" s="20">
-        <f t="shared" si="0"/>
+      <c r="M24" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N24">
@@ -3322,26 +3359,30 @@
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="P24" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="25" t="str">
-        <f>CONCATENATE($G24,"|",$P24)</f>
-        <v>PPW01010|3</v>
-      </c>
-      <c r="R24" s="11">
+      <c r="P24" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>1</v>
+      </c>
+      <c r="R24" s="24" t="str">
+        <f>CONCATENATE($G24,"|",$Q24)</f>
+        <v>PPW01010|1</v>
+      </c>
+      <c r="S24" s="11">
+        <f>I24</f>
         <v>0.54</v>
       </c>
-      <c r="S24" s="7">
-        <f t="shared" si="1"/>
-        <v>1.62</v>
-      </c>
-      <c r="T24" s="25" t="str">
-        <f>CONCATENATE($H24,",",$P24)</f>
-        <v>3498419,3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+      <c r="U24" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>3498419,1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>1</v>
       </c>
@@ -3366,10 +3407,10 @@
       <c r="H25" s="3">
         <v>1738292</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="30">
         <v>6.57</v>
       </c>
-      <c r="K25" s="33"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="8">
         <v>1</v>
       </c>
@@ -3382,26 +3423,27 @@
       <c r="O25" s="8">
         <v>1</v>
       </c>
-      <c r="P25" s="18">
+      <c r="Q25" s="17">
         <v>2</v>
       </c>
-      <c r="Q25" s="25" t="str">
-        <f>CONCATENATE($G25,"|",$P25)</f>
+      <c r="R25" s="24" t="str">
+        <f>CONCATENATE($G25,"|",$Q25)</f>
         <v>LDU0830S350|2</v>
       </c>
-      <c r="R25" s="12">
+      <c r="S25" s="11">
+        <f>I25</f>
         <v>6.57</v>
       </c>
-      <c r="S25" s="7">
-        <f t="shared" si="1"/>
+      <c r="T25" s="7">
+        <f t="shared" si="2"/>
         <v>13.14</v>
       </c>
-      <c r="T25" s="25" t="str">
-        <f>CONCATENATE($H25,",",$P25)</f>
+      <c r="U25" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>1738292,2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3420,27 +3462,27 @@
       <c r="F26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>1467524</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <v>0.34499999999999997</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="32">
         <v>0.38</v>
       </c>
-      <c r="L26" s="20">
-        <f>A26*$C$1</f>
+      <c r="L26" s="19">
+        <f t="shared" ref="L26:L59" si="6">A26*$C$1</f>
         <v>2</v>
       </c>
-      <c r="M26" s="20">
-        <f t="shared" si="0"/>
+      <c r="M26" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N26">
@@ -3449,25 +3491,26 @@
       <c r="O26">
         <v>5</v>
       </c>
-      <c r="P26" s="18">
+      <c r="Q26" s="17">
         <v>5</v>
       </c>
-      <c r="Q26" s="25" t="str">
-        <f>CONCATENATE($G26,"|",$P26)</f>
+      <c r="R26" s="24" t="str">
+        <f>CONCATENATE($G26,"|",$Q26)</f>
         <v>MBRS130|5</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="11">
+        <f>I26</f>
         <v>0.34499999999999997</v>
       </c>
-      <c r="S26" s="7">
+      <c r="T26" s="7">
         <v>1.72</v>
       </c>
-      <c r="T26" s="25" t="str">
-        <f>CONCATENATE($H26,",",$P26)</f>
+      <c r="U26" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>1467524,5</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3489,18 +3532,18 @@
       <c r="G27" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>2677304</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <v>0.47399999999999998</v>
       </c>
-      <c r="L27" s="20">
-        <f>A27*$C$1</f>
+      <c r="L27" s="19">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M27" s="20">
-        <f t="shared" si="0"/>
+      <c r="M27" s="19">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N27">
@@ -3509,26 +3552,27 @@
       <c r="O27">
         <v>5</v>
       </c>
-      <c r="P27" s="18">
+      <c r="Q27" s="17">
         <v>5</v>
       </c>
-      <c r="Q27" s="25" t="str">
-        <f>CONCATENATE($G27,"|",$P27)</f>
+      <c r="R27" s="24" t="str">
+        <f>CONCATENATE($G27,"|",$Q27)</f>
         <v>SF37|5</v>
       </c>
-      <c r="R27" s="11">
+      <c r="S27" s="11">
+        <f>I27</f>
         <v>0.47399999999999998</v>
       </c>
-      <c r="S27" s="7">
-        <f t="shared" si="1"/>
+      <c r="T27" s="7">
+        <f t="shared" si="2"/>
         <v>2.37</v>
       </c>
-      <c r="T27" s="25" t="str">
-        <f>CONCATENATE($H27,",",$P27)</f>
+      <c r="U27" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>2677304,5</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3547,27 +3591,27 @@
       <c r="F28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>1568026</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <v>0.625</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="32">
         <v>0.752</v>
       </c>
-      <c r="L28" s="20">
-        <f>A28*$C$1</f>
+      <c r="L28" s="19">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M28" s="20">
-        <f>ROUNDUP(L28*1.1, 0)</f>
+      <c r="M28" s="19">
+        <f t="shared" ref="K28:M59" si="7">ROUNDUP(L28*1.1, 0)</f>
         <v>3</v>
       </c>
       <c r="N28">
@@ -3576,30 +3620,34 @@
       <c r="O28">
         <v>1</v>
       </c>
-      <c r="P28" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="25" t="str">
-        <f>CONCATENATE($G28,"|",$P28)</f>
-        <v>47346-0001|3</v>
-      </c>
-      <c r="R28" s="11">
+      <c r="P28" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>0</v>
+      </c>
+      <c r="R28" s="24" t="str">
+        <f>CONCATENATE($G28,"|",$Q28)</f>
+        <v>47346-0001|0</v>
+      </c>
+      <c r="S28" s="11">
+        <f>I28</f>
         <v>0.625</v>
       </c>
-      <c r="S28" s="7">
-        <f>R28*P28</f>
-        <v>1.875</v>
-      </c>
-      <c r="T28" s="25" t="str">
-        <f>CONCATENATE($H28,",",$P28)</f>
-        <v>1568026,3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T28" s="7">
+        <f t="shared" ref="T28:T59" si="8">S28*Q28</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
@@ -3612,22 +3660,22 @@
       <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>230</v>
       </c>
       <c r="H29" s="5">
         <v>3417220</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="31">
         <v>3.76</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="L29" s="20">
-        <f>A29*$C$1</f>
+      <c r="J29" s="25"/>
+      <c r="L29" s="19">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="M29" s="20">
-        <f>ROUNDUP(L29*1.1, 0)</f>
+      <c r="M29" s="19">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="N29">
@@ -3636,1037 +3684,1916 @@
       <c r="O29">
         <v>1</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>6</v>
+      </c>
+      <c r="R29" s="24" t="str">
+        <f>CONCATENATE($G29,"|",$Q29)</f>
+        <v>3-106506-2|6</v>
+      </c>
+      <c r="S29" s="11">
+        <f>I29</f>
+        <v>3.76</v>
+      </c>
+      <c r="T29" s="7">
+        <f t="shared" si="8"/>
+        <v>22.56</v>
+      </c>
+      <c r="U29" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>3417220,6</v>
+      </c>
+      <c r="X29" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z29" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>2452348</v>
+      </c>
+      <c r="AB29" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="32"/>
+      <c r="Q30" s="17"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="24" t="str">
+        <f>IF($Q30&gt;0,CONCATENATE($H30,",",$Q30),"")</f>
+        <v/>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="20"/>
+    </row>
+    <row r="31" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="32"/>
+      <c r="Q31" s="17"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="24" t="str">
+        <f>IF($Q31&gt;0,CONCATENATE($H31,",",$Q31),"")</f>
+        <v/>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="20"/>
+    </row>
+    <row r="32" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="5">
+        <v>297318</v>
+      </c>
+      <c r="I32" s="31">
+        <v>2.39</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M32" s="24">
+        <v>1</v>
+      </c>
+      <c r="N32" s="24">
+        <v>1</v>
+      </c>
+      <c r="O32" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>1</v>
+      </c>
+      <c r="R32" s="24" t="str">
+        <f>CONCATENATE($G32,"|",$Q32)</f>
+        <v>3365-16 |1</v>
+      </c>
+      <c r="S32" s="11">
+        <f>I32</f>
+        <v>2.39</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" ref="T32:T33" si="9">S32*Q32</f>
+        <v>2.39</v>
+      </c>
+      <c r="U32" s="24" t="str">
+        <f t="shared" ref="U32:U43" si="10">IF($Q32&gt;0,CONCATENATE($H32,",",$Q32),"")</f>
+        <v>297318,1</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="20"/>
+    </row>
+    <row r="33" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3221956</v>
+      </c>
+      <c r="I33" s="31">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N33" s="24">
+        <v>1</v>
+      </c>
+      <c r="O33" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="17">
+        <v>3</v>
+      </c>
+      <c r="R33" s="24" t="str">
+        <f>CONCATENATE($G33,"|",$Q33)</f>
+        <v>90635-1161|3</v>
+      </c>
+      <c r="S33" s="11">
+        <f>I33</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="9"/>
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="U33" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>3221956,3</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="20"/>
+    </row>
+    <row r="34" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>1</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I34" s="31">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" s="32">
+        <v>22.14</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" ref="L34" si="11">A34*$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="M34" s="24">
+        <v>2</v>
+      </c>
+      <c r="N34" s="24">
+        <v>1</v>
+      </c>
+      <c r="O34" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>2</v>
+      </c>
+      <c r="R34" s="24" t="str">
+        <f>CONCATENATE($G34,"|",$Q34)</f>
+        <v>LCD-09395|2</v>
+      </c>
+      <c r="S34" s="11">
+        <f>I34</f>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" ref="T34" si="12">S34*Q34</f>
+        <v>37.979999999999997</v>
+      </c>
+      <c r="U34" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>MK00650,2</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="20"/>
+    </row>
+    <row r="35" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>5</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1082278</v>
+      </c>
+      <c r="I35" s="31">
+        <v>5.68</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="24">
+        <v>5</v>
+      </c>
+      <c r="M35" s="24">
+        <v>5</v>
+      </c>
+      <c r="N35" s="24">
+        <v>1</v>
+      </c>
+      <c r="O35" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>5</v>
+      </c>
+      <c r="R35" s="24" t="str">
+        <f>CONCATENATE($G35,"|",$Q35)</f>
+        <v>18535CD|5</v>
+      </c>
+      <c r="S35" s="11">
+        <f>I35</f>
+        <v>5.68</v>
+      </c>
+      <c r="T35" s="7">
+        <f t="shared" ref="T35:T42" si="13">S35*Q35</f>
+        <v>28.4</v>
+      </c>
+      <c r="U35" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>1082278,5</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="20"/>
+    </row>
+    <row r="36" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>1</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1082523</v>
+      </c>
+      <c r="I36" s="31">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="24">
+        <f t="shared" ref="L36:L42" si="14">A36*$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="M36" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N36" s="24">
         <v>10</v>
       </c>
-      <c r="Q29" s="25" t="str">
-        <f>CONCATENATE($G29,"|",$P29)</f>
-        <v>3-106506-2|10</v>
-      </c>
-      <c r="R29" s="11">
-        <v>3.15</v>
-      </c>
-      <c r="S29" s="7">
-        <f>R29*P29</f>
-        <v>31.5</v>
-      </c>
-      <c r="T29" s="25" t="str">
-        <f>CONCATENATE($H29,",",$P29)</f>
-        <v>3417220,10</v>
-      </c>
-      <c r="W29" t="s">
-        <v>228</v>
-      </c>
-      <c r="X29" s="1" t="s">
+      <c r="O36" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>10</v>
+      </c>
+      <c r="R36" s="24" t="str">
+        <f>CONCATENATE($G36,"|",$Q36)</f>
+        <v>U483|10</v>
+      </c>
+      <c r="S36" s="11">
+        <f>I36</f>
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="T36" s="7">
+        <f t="shared" si="13"/>
+        <v>5.5900000000000007</v>
+      </c>
+      <c r="U36" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>1082523,10</v>
+      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="20"/>
+    </row>
+    <row r="37" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>1</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1082524</v>
+      </c>
+      <c r="I37" s="31">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="24">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="M37" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N37" s="24">
+        <v>10</v>
+      </c>
+      <c r="O37" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="17">
+        <v>10</v>
+      </c>
+      <c r="R37" s="24" t="str">
+        <f>CONCATENATE($G37,"|",$Q37)</f>
+        <v>U486|10</v>
+      </c>
+      <c r="S37" s="11">
+        <f>I37</f>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="T37" s="7">
+        <f t="shared" si="13"/>
+        <v>5.67</v>
+      </c>
+      <c r="U37" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>1082524,10</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="20"/>
+    </row>
+    <row r="38" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>3</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1082522</v>
+      </c>
+      <c r="I38" s="31">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="24">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="M38" s="24">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="N38" s="24">
+        <v>10</v>
+      </c>
+      <c r="O38" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>10</v>
+      </c>
+      <c r="R38" s="24" t="str">
+        <f>CONCATENATE($G38,"|",$Q38)</f>
+        <v>U482|10</v>
+      </c>
+      <c r="S38" s="11">
+        <f>I38</f>
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" si="13"/>
+        <v>3.4699999999999998</v>
+      </c>
+      <c r="U38" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>1082522,10</v>
+      </c>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="20"/>
+    </row>
+    <row r="39" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>4</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1084693</v>
+      </c>
+      <c r="I39" s="31">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J39" s="25"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="24">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="M39" s="24">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N39" s="24">
+        <v>5</v>
+      </c>
+      <c r="O39" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>10</v>
+      </c>
+      <c r="R39" s="24" t="str">
+        <f>CONCATENATE($G39,"|",$Q39)</f>
+        <v>5502-15SA-01-F1 |10</v>
+      </c>
+      <c r="S39" s="11">
+        <f>I39</f>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="13"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="U39" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>1084693,10</v>
+      </c>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="20"/>
+    </row>
+    <row r="40" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>8</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I40" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="24">
+        <v>8</v>
+      </c>
+      <c r="M40" s="24">
+        <v>8</v>
+      </c>
+      <c r="N40" s="24">
+        <v>1</v>
+      </c>
+      <c r="O40" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>8</v>
+      </c>
+      <c r="R40" s="24" t="str">
+        <f>CONCATENATE($G40,"|",$Q40)</f>
+        <v>5502-15PA-01-F1|8</v>
+      </c>
+      <c r="S40" s="11">
+        <f>I40</f>
+        <v>0.33</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="13"/>
+        <v>2.64</v>
+      </c>
+      <c r="U40" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>CN11131,8</v>
+      </c>
+      <c r="X40">
+        <v>1084686</v>
+      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="20"/>
+    </row>
+    <row r="41" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
         <v>12</v>
       </c>
-      <c r="Y29" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z29" s="5">
-        <v>2452348</v>
-      </c>
-      <c r="AA29" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" s="5">
+        <v>4303441</v>
+      </c>
+      <c r="I41" s="31">
+        <v>3.59</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="24">
+        <v>12</v>
+      </c>
+      <c r="M41" s="24">
+        <v>12</v>
+      </c>
+      <c r="N41" s="24">
+        <v>1</v>
+      </c>
+      <c r="O41" s="24">
+        <v>1</v>
+      </c>
+      <c r="P41" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>9</v>
+      </c>
+      <c r="R41" s="24" t="str">
+        <f>CONCATENATE($G41,"|",$Q41)</f>
+        <v>MHDM-15-K|9</v>
+      </c>
+      <c r="S41" s="11">
+        <f>I41</f>
+        <v>3.59</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="13"/>
+        <v>32.31</v>
+      </c>
+      <c r="U41" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>4303441,9</v>
+      </c>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="20"/>
+    </row>
+    <row r="42" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>8</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I42" s="31">
+        <v>0.64</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="24">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="M42" s="24">
+        <v>16</v>
+      </c>
+      <c r="N42" s="24">
+        <v>1</v>
+      </c>
+      <c r="O42" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="17">
+        <v>16</v>
+      </c>
+      <c r="R42" s="24" t="str">
+        <f>CONCATENATE($G42,"|",$Q42)</f>
+        <v>SPC15082.|16</v>
+      </c>
+      <c r="S42" s="11">
+        <f>I42</f>
+        <v>0.64</v>
+      </c>
+      <c r="T42" s="7">
+        <f t="shared" si="13"/>
+        <v>10.24</v>
+      </c>
+      <c r="U42" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>CN21810,16</v>
+      </c>
+      <c r="X42">
+        <v>2293865</v>
+      </c>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="20"/>
+    </row>
+    <row r="43" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>1</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1635117</v>
+      </c>
+      <c r="I43" s="31">
+        <v>12.93</v>
+      </c>
+      <c r="J43" s="25"/>
+      <c r="L43" s="24">
+        <f t="shared" ref="L43" si="15">A43*$C$1</f>
+        <v>2</v>
+      </c>
+      <c r="M43" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N43" s="24">
+        <v>1</v>
+      </c>
+      <c r="O43" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>2</v>
+      </c>
+      <c r="R43" s="24" t="str">
+        <f>CONCATENATE($G43,"|",$Q43)</f>
+        <v>MCRM2055L|2</v>
+      </c>
+      <c r="S43" s="11">
+        <f>I43</f>
+        <v>12.93</v>
+      </c>
+      <c r="T43" s="7">
+        <f t="shared" ref="T43" si="16">S43*Q43</f>
+        <v>25.86</v>
+      </c>
+      <c r="U43" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>1635117,2</v>
+      </c>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="20"/>
+    </row>
+    <row r="44" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="32"/>
+      <c r="Q44" s="17"/>
+      <c r="S44" s="11">
+        <f>SUM(T32:T42)</f>
+        <v>135.33500000000001</v>
+      </c>
+      <c r="T44" s="7"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="20"/>
+    </row>
+    <row r="45" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="32"/>
+      <c r="Q45" s="17"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="7"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="20"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G46" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H46" s="26">
         <v>2457508</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I46" s="29">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J46" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K46" s="32">
         <v>1.67</v>
       </c>
-      <c r="L30" s="20">
-        <f>A30*$C$1</f>
+      <c r="L46" s="19">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M30" s="20">
-        <f>ROUNDUP(L30*1.1, 0)</f>
+      <c r="M46" s="19">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" s="18">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>2</v>
+      </c>
+      <c r="R46" s="24" t="str">
+        <f>CONCATENATE($G46,"|",$Q46)</f>
+        <v>DO3308P-334MLB|2</v>
+      </c>
+      <c r="S46" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="T46" s="7">
+        <f t="shared" si="8"/>
+        <v>3.34</v>
+      </c>
+      <c r="U46" s="24"/>
+      <c r="V46" t="str">
+        <f>IF($Q46&gt;0,CONCATENATE($J46,"|",$Q46),"")</f>
+        <v>994-DO3308P-334MLD |2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="26">
+        <v>1653721</v>
+      </c>
+      <c r="I47" s="29">
+        <v>2.08</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K47" s="32">
+        <v>0.92</v>
+      </c>
+      <c r="L47" s="19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M47" s="19">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="Q30" s="25" t="str">
-        <f>CONCATENATE($G30,"|",$P30)</f>
-        <v>DO3308P-334MLB|3</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.67</v>
-      </c>
-      <c r="S30" s="7">
-        <f>R30*P30</f>
-        <v>5.01</v>
-      </c>
-      <c r="T30" s="25"/>
-      <c r="U30" t="str">
-        <f>CONCATENATE($J30,"|",$P30)</f>
-        <v>994-DO3308P-334MLD |3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="27">
-        <v>1653721</v>
-      </c>
-      <c r="I31" s="30">
-        <v>2.08</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="K31" s="33">
-        <v>0.92</v>
-      </c>
-      <c r="L31" s="20">
-        <f>A31*$C$1</f>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="17">
         <v>2</v>
       </c>
-      <c r="M31" s="20">
-        <f>ROUNDUP(L31*1.1, 0)</f>
+      <c r="R47" s="24" t="str">
+        <f>CONCATENATE($G47,"|",$Q47)</f>
+        <v>DR73-680-R|2</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="T47" s="7">
+        <f t="shared" si="8"/>
+        <v>1.83</v>
+      </c>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24" t="str">
+        <f t="shared" ref="V47:V59" si="17">IF($Q47&gt;0,CONCATENATE($J47,"|",$Q47),"")</f>
+        <v>704-DR73-680-R |2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="12">
+        <v>744053003</v>
+      </c>
+      <c r="H48" s="12">
+        <v>2082565</v>
+      </c>
+      <c r="I48" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K48" s="32">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L48" s="19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M48" s="19">
         <v>3</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" s="18">
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>2</v>
+      </c>
+      <c r="R48" s="24" t="str">
+        <f>CONCATENATE($G48,"|",$Q48)</f>
+        <v>744053003|2</v>
+      </c>
+      <c r="S48" s="11">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="T48" s="7">
+        <f t="shared" si="8"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>710-744053003|2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" s="12">
+        <v>2322077</v>
+      </c>
+      <c r="I49" s="27">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K49" s="32">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="L49" s="19">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M49" s="19">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49" s="24">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>0</v>
+      </c>
+      <c r="R49" s="24" t="str">
+        <f>CONCATENATE($G49,"|",$Q49)</f>
+        <v>150080RS75000|0</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="T49" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>3</v>
       </c>
-      <c r="Q31" s="25" t="str">
-        <f>CONCATENATE($G31,"|",$P31)</f>
-        <v>DR73-680-R|3</v>
-      </c>
-      <c r="R31" s="11">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="S31" s="7">
-        <f>R31*P31</f>
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25" t="str">
-        <f t="shared" ref="U31:U43" si="4">CONCATENATE($J31,"|",$P31)</f>
-        <v>704-DR73-680-R |3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="13">
-        <v>744053003</v>
-      </c>
-      <c r="H32" s="13">
-        <v>2082565</v>
-      </c>
-      <c r="I32" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K32" s="33">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="L32" s="20">
-        <f>A32*$C$1</f>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="12">
+        <v>317500</v>
+      </c>
+      <c r="I50" s="27">
+        <v>0.121</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="32">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L50" s="19">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M50" s="19">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="N50">
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="17">
+        <v>10</v>
+      </c>
+      <c r="R50" s="24" t="str">
+        <f>CONCATENATE($G50,"|",$Q50)</f>
+        <v>08051A220JAT2A|10</v>
+      </c>
+      <c r="S50" s="11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="T50" s="7">
+        <f t="shared" si="8"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>581-08051A220J|10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="12">
+        <v>9696032</v>
+      </c>
+      <c r="I51" s="27">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K51" s="32">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="L51" s="19">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M32" s="20">
-        <f>ROUNDUP(L32*1.1, 0)</f>
+      <c r="M51" s="19">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" s="18">
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>2</v>
+      </c>
+      <c r="R51" s="24" t="str">
+        <f>CONCATENATE($G51,"|",$Q51)</f>
+        <v>EEE-FK1J470P|2</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="T51" s="7">
+        <f t="shared" si="8"/>
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>667-EEE-FK1J470P|2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1495374</v>
+      </c>
+      <c r="I52" s="27">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K52" s="32">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L52" s="19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M52" s="19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52" s="24">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="17">
+        <v>0</v>
+      </c>
+      <c r="R52" s="24" t="str">
+        <f>CONCATENATE($G52,"|",$Q52)</f>
+        <v>FOD8523S|0</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="T52" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="12">
+        <v>2396106</v>
+      </c>
+      <c r="I53" s="27">
+        <v>4.18</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K53" s="32">
+        <v>3.74</v>
+      </c>
+      <c r="L53" s="19">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="M53" s="19">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="N53">
+        <v>25</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="17">
+        <v>50</v>
+      </c>
+      <c r="R53" s="24" t="str">
+        <f>CONCATENATE($G53,"|",$Q53)</f>
+        <v>AQV252GA|50</v>
+      </c>
+      <c r="S53" s="11">
+        <v>3.74</v>
+      </c>
+      <c r="T53" s="7">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>769-AQV252GA|50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1248132</v>
+      </c>
+      <c r="I54" s="27">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K54" s="32">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="L54" s="19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M54" s="19">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="Q32" s="25" t="str">
-        <f>CONCATENATE($G32,"|",$P32)</f>
-        <v>744053003|3</v>
-      </c>
-      <c r="R32" s="11">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="S32" s="7">
-        <f>R32*P32</f>
-        <v>3.4799999999999995</v>
-      </c>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>710-744053003|3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="N54">
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54" s="24">
+        <v>13</v>
+      </c>
+      <c r="Q54" s="17">
+        <v>0</v>
+      </c>
+      <c r="R54" s="24" t="str">
+        <f>CONCATENATE($G54,"|",$Q54)</f>
+        <v>826925-3|0</v>
+      </c>
+      <c r="S54" s="11">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="T54" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" s="12">
+        <v>3122872</v>
+      </c>
+      <c r="I55" s="27">
+        <v>5.34</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="32">
+        <v>4.66</v>
+      </c>
+      <c r="L55" s="19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M55" s="19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="17">
+        <v>0</v>
+      </c>
+      <c r="R55" s="24" t="str">
+        <f>CONCATENATE($G55,"|",$Q55)</f>
+        <v>LM2594HVM-5.0/NOPB|0</v>
+      </c>
+      <c r="S55" s="11">
+        <v>4.66</v>
+      </c>
+      <c r="T55" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H56" s="12">
+        <v>1519390</v>
+      </c>
+      <c r="I56" s="27">
+        <v>2</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K56" s="32">
+        <v>1.58</v>
+      </c>
+      <c r="L56" s="19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M56" s="19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="17">
+        <v>3</v>
+      </c>
+      <c r="R56" s="24" t="str">
+        <f>CONCATENATE($G56,"|",$Q56)</f>
+        <v>553-0112-200F|3</v>
+      </c>
+      <c r="S56" s="11">
+        <v>1.58</v>
+      </c>
+      <c r="T56" s="7">
+        <f t="shared" si="8"/>
+        <v>4.74</v>
+      </c>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>645-553-0112-200F|3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="12">
+        <v>1455090</v>
+      </c>
+      <c r="I57" s="27">
+        <v>8.76</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K57" s="32">
+        <v>8.42</v>
+      </c>
+      <c r="L57" s="19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M57" s="19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>2</v>
+      </c>
+      <c r="R57" s="24" t="str">
+        <f>CONCATENATE($G57,"|",$Q57)</f>
+        <v>ATMEGA1280-16AU|2</v>
+      </c>
+      <c r="S57" s="11">
+        <v>8.42</v>
+      </c>
+      <c r="T57" s="7">
+        <f t="shared" si="8"/>
+        <v>16.84</v>
+      </c>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>556-ATMEGA1280-16AU|2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1146032</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K58" s="32">
+        <v>3.56</v>
+      </c>
+      <c r="L58" s="19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M58" s="19">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="13">
-        <v>2322077</v>
-      </c>
-      <c r="I33" s="28">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="33">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="L33" s="20">
-        <f>A33*$C$1</f>
-        <v>10</v>
-      </c>
-      <c r="M33" s="20">
-        <f>ROUNDUP(L33*1.1, 0)</f>
-        <v>11</v>
-      </c>
-      <c r="N33">
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="17">
+        <v>4</v>
+      </c>
+      <c r="R58" s="24" t="str">
+        <f>CONCATENATE($G58,"|",$Q58)</f>
+        <v>FT232RL|4</v>
+      </c>
+      <c r="S58" s="11">
+        <v>3.56</v>
+      </c>
+      <c r="T58" s="7">
+        <f t="shared" si="8"/>
+        <v>14.24</v>
+      </c>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>FT232RL-TUBE|4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K59" s="32">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="L59" s="19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M59" s="19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N59">
         <v>5</v>
       </c>
-      <c r="O33">
+      <c r="O59">
         <v>5</v>
       </c>
-      <c r="P33" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="25" t="str">
-        <f>CONCATENATE($G33,"|",$P33)</f>
-        <v>150080RS75000|15</v>
-      </c>
-      <c r="R33" s="11">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="S33" s="7">
-        <f>R33*P33</f>
-        <v>2.0550000000000002</v>
-      </c>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>150080RS75000 |15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="13">
-        <v>317500</v>
-      </c>
-      <c r="I34" s="28">
-        <v>0.121</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="K34" s="33">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="L34" s="20">
-        <f>A34*$C$1</f>
-        <v>6</v>
-      </c>
-      <c r="M34" s="20">
-        <f>ROUNDUP(L34*1.1, 0)</f>
-        <v>7</v>
-      </c>
-      <c r="N34">
-        <v>10</v>
-      </c>
-      <c r="O34">
-        <v>10</v>
-      </c>
-      <c r="P34" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="25" t="str">
-        <f>CONCATENATE($G34,"|",$P34)</f>
-        <v>08051A220JAT2A|10</v>
-      </c>
-      <c r="R34" s="11">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="S34" s="7">
-        <f>R34*P34</f>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>581-08051A220J|10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="13">
-        <v>9696032</v>
-      </c>
-      <c r="I35" s="28">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K35" s="33">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="L35" s="20">
-        <f>A35*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M35" s="20">
-        <f>ROUNDUP(L35*1.1, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="25" t="str">
-        <f>CONCATENATE($G35,"|",$P35)</f>
-        <v>EEE-FK1J470P|3</v>
-      </c>
-      <c r="R35" s="11">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="S35" s="7">
-        <f>R35*P35</f>
-        <v>1.758</v>
-      </c>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>667-EEE-FK1J470P|3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="13">
-        <v>1495374</v>
-      </c>
-      <c r="I36" s="28">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="K36" s="33">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="L36" s="20">
-        <f>A36*$C$1</f>
-        <v>4</v>
-      </c>
-      <c r="M36" s="20">
-        <f>ROUNDUP(L36*1.1, 0)</f>
+      <c r="Q59" s="17">
         <v>5</v>
       </c>
-      <c r="N36">
-        <v>5</v>
-      </c>
-      <c r="O36">
-        <v>5</v>
-      </c>
-      <c r="P36" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="25" t="str">
-        <f>CONCATENATE($G36,"|",$P36)</f>
-        <v>FOD8523S|5</v>
-      </c>
-      <c r="R36" s="11">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="S36" s="7">
-        <f>R36*P36</f>
-        <v>3.96</v>
-      </c>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>512-FOD8523S|5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>24</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="13">
-        <v>2396106</v>
-      </c>
-      <c r="I37" s="28">
-        <v>4.18</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="K37" s="33">
-        <v>3.74</v>
-      </c>
-      <c r="L37" s="20">
-        <f>A37*$C$1</f>
-        <v>48</v>
-      </c>
-      <c r="M37" s="20">
-        <f>ROUNDUP(L37*1.1, 0)</f>
-        <v>53</v>
-      </c>
-      <c r="N37">
-        <v>25</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37" s="18">
-        <v>50</v>
-      </c>
-      <c r="Q37" s="25" t="str">
-        <f>CONCATENATE($G37,"|",$P37)</f>
-        <v>AQV252GA|50</v>
-      </c>
-      <c r="R37" s="11">
-        <v>3.74</v>
-      </c>
-      <c r="S37" s="7">
-        <f>R37*P37</f>
-        <v>187</v>
-      </c>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>769-AQV252GA|50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="13">
-        <v>1248132</v>
-      </c>
-      <c r="I38" s="28">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="K38" s="33">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="L38" s="20">
-        <f>A38*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M38" s="20">
-        <f>ROUNDUP(L38*1.1, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="N38">
-        <v>10</v>
-      </c>
-      <c r="O38">
-        <v>10</v>
-      </c>
-      <c r="P38" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="25" t="str">
-        <f>CONCATENATE($G38,"|",$P38)</f>
-        <v>826925-3|10</v>
-      </c>
-      <c r="R38" s="11">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="S38" s="7">
-        <f>R38*P38</f>
-        <v>4.72</v>
-      </c>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>571-826925-3|10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39" s="13">
-        <v>3122872</v>
-      </c>
-      <c r="I39" s="28">
-        <v>5.34</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="K39" s="33">
-        <v>4.66</v>
-      </c>
-      <c r="L39" s="20">
-        <f>A39*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M39" s="20">
-        <f>ROUNDUP(L39*1.1, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q39" s="25" t="str">
-        <f>CONCATENATE($G39,"|",$P39)</f>
-        <v>LM2594HVM-5.0/NOPB|3</v>
-      </c>
-      <c r="R39" s="11">
-        <v>4.66</v>
-      </c>
-      <c r="S39" s="7">
-        <f>R39*P39</f>
-        <v>13.98</v>
-      </c>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>926-LM2594HVM5.0NOPB|3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H40" s="13">
-        <v>1519390</v>
-      </c>
-      <c r="I40" s="28">
-        <v>2</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="K40" s="33">
-        <v>1.58</v>
-      </c>
-      <c r="L40" s="20">
-        <f>A40*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M40" s="20">
-        <f>ROUNDUP(L40*1.1, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="25" t="str">
-        <f>CONCATENATE($G40,"|",$P40)</f>
-        <v>553-0112-200F|3</v>
-      </c>
-      <c r="R40" s="11">
-        <v>1.58</v>
-      </c>
-      <c r="S40" s="7">
-        <f>R40*P40</f>
-        <v>4.74</v>
-      </c>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>645-553-0112-200F|3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="13">
-        <v>1455090</v>
-      </c>
-      <c r="I41" s="28">
-        <v>8.76</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="K41" s="33">
-        <v>8.42</v>
-      </c>
-      <c r="L41" s="20">
-        <f>A41*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M41" s="20">
-        <f>ROUNDUP(L41*1.1, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="25" t="str">
-        <f>CONCATENATE($G41,"|",$P41)</f>
-        <v>ATMEGA1280-16AU|3</v>
-      </c>
-      <c r="R41" s="11">
-        <v>8.42</v>
-      </c>
-      <c r="S41" s="7">
-        <f>R41*P41</f>
-        <v>25.259999999999998</v>
-      </c>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>556-ATMEGA1280-16AU|3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="13">
-        <v>1146032</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="K42" s="33">
-        <v>3.56</v>
-      </c>
-      <c r="L42" s="20">
-        <f>A42*$C$1</f>
-        <v>4</v>
-      </c>
-      <c r="M42" s="20">
-        <f>ROUNDUP(L42*1.1, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="25" t="str">
-        <f>CONCATENATE($G42,"|",$P42)</f>
-        <v>FT232RL|5</v>
-      </c>
-      <c r="R42" s="11">
-        <v>3.56</v>
-      </c>
-      <c r="S42" s="7">
-        <f>R42*P42</f>
-        <v>17.8</v>
-      </c>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>FT232RL-TUBE|5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s">
-        <v>175</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="K43" s="33">
+      <c r="R59" s="24" t="str">
+        <f>CONCATENATE($G59,"|",$Q59)</f>
+        <v>UPW2A680MPD|5</v>
+      </c>
+      <c r="S59" s="11">
         <v>0.49099999999999999</v>
       </c>
-      <c r="L43" s="20">
-        <f>A43*$C$1</f>
-        <v>2</v>
-      </c>
-      <c r="M43" s="20">
-        <f>ROUNDUP(L43*1.1, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="N43">
-        <v>5</v>
-      </c>
-      <c r="O43">
-        <v>5</v>
-      </c>
-      <c r="P43" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="25" t="str">
-        <f>CONCATENATE($G43,"|",$P43)</f>
-        <v>UPW2A680MPD|5</v>
-      </c>
-      <c r="R43" s="11">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="S43" s="7">
-        <f>R43*P43</f>
+      <c r="T59" s="7">
+        <f t="shared" si="8"/>
         <v>2.4550000000000001</v>
       </c>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24" t="str">
+        <f t="shared" si="17"/>
         <v>647-UPW2A680MPD|5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G44"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="35"/>
-      <c r="U44" s="25"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S45" s="6">
-        <f>SUM(S4:S43)</f>
-        <v>388.14850000000013</v>
-      </c>
-      <c r="T45" s="7">
-        <f>SUM(S4:S29)</f>
-        <v>112.26550000000002</v>
-      </c>
-      <c r="U45" s="11">
-        <f>SUM(S30:S43)</f>
-        <v>275.88299999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T46" s="7">
-        <v>112.27</v>
-      </c>
-      <c r="U46" s="7">
-        <v>275.88299999999998</v>
-      </c>
-      <c r="V46" s="7">
-        <f>SUM(T46:U46)</f>
-        <v>388.15299999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T47" s="7">
-        <v>134.72</v>
-      </c>
-      <c r="U47" s="7">
-        <f>U46*1.2</f>
-        <v>331.05959999999999</v>
-      </c>
-      <c r="V47" s="6">
-        <f>SUM(T47:U47)</f>
-        <v>465.77959999999996</v>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G60"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="34"/>
+      <c r="V60" s="24"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T61" s="6">
+        <f>SUM(T4:T59)</f>
+        <v>470.45599999999996</v>
+      </c>
+      <c r="U61" s="7">
+        <f>SUM(T4:T42)</f>
+        <v>209.73899999999998</v>
+      </c>
+      <c r="V61" s="11">
+        <f>SUM(T46:T59)</f>
+        <v>234.85700000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T62" s="7">
+        <f>T61*1.2</f>
+        <v>564.54719999999998</v>
+      </c>
+      <c r="U62" s="7">
+        <v>209.74</v>
+      </c>
+      <c r="V62" s="7">
+        <v>234.86</v>
+      </c>
+      <c r="W62" s="7">
+        <f>SUM(U62:V62)</f>
+        <v>444.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U63" s="7">
+        <v>251.69</v>
+      </c>
+      <c r="V63" s="7">
+        <f>V62*1.2</f>
+        <v>281.83199999999999</v>
+      </c>
+      <c r="W63" s="6">
+        <f>SUM(U63:V63)</f>
+        <v>533.52199999999993</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P4:P43">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
+  <mergeCells count="1">
+    <mergeCell ref="A31:F31"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Q4:Q59">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
       <formula>$M4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K43">
+  <conditionalFormatting sqref="K4:K42 K44:K59">
     <cfRule type="containsBlanks" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(K4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
       <formula>$I4</formula>
     </cfRule>
   </conditionalFormatting>
